--- a/Febrero/Programación/Tabla algoritmos.xlsx
+++ b/Febrero/Programación/Tabla algoritmos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHONATAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHONATAN\Downloads\Trabajos SENA\Febrero\Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044612E5-C2CB-407C-94C8-8FEF886C9590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6987FFCB-2F25-401A-A577-EBE27226D1A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{16AD2EEF-BA29-41AF-9B2F-962D916DC2EF}"/>
   </bookViews>
@@ -555,10 +555,10 @@
     <t>Velocidad en metros por segundo</t>
   </si>
   <si>
-    <t>Velocidad= rcuad((2*gravedad)*3,5)</t>
-  </si>
-  <si>
     <t>Datos: 5 segundos                                                                            v= rcuad((2*9.8)*3.5) = 52.38 m/s</t>
+  </si>
+  <si>
+    <t>Velocidad= math.sqrt((2*gravedad)*3,5)</t>
   </si>
 </sst>
 </file>
@@ -1251,13 +1251,13 @@
         <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
